--- a/CashFlow/PH_cashflow.xlsx
+++ b/CashFlow/PH_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>7380000000.0</v>
+        <v>2102919000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>7493000000.0</v>
+        <v>171176000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5671832000.0</v>
+        <v>265190000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3851724000.0</v>
+        <v>201164000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2117044000.0</v>
+        <v>72301000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>150001000.0</v>
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1428011000.0</v>
+        <v>5271000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1149000.0</v>
+        <v>5142000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-149963000.0</v>
+        <v>3702889000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-387250000.0</v>
+        <v>2339502000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-17646000.0</v>
+        <v>1280216000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-89946000.0</v>
